--- a/people/wangziwei/用户故事.xlsx
+++ b/people/wangziwei/用户故事.xlsx
@@ -16,101 +16,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user story</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取号排队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名到银行办理业务的顾客，我希望能够网上取号，随时观察前边还有多少人，估算剩余时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取钱存钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名想要快速办理简单业务的顾客，我希望atm机不只能取钱还能存钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名顾客，我希望办理业务能够有多重渠道，能够适应不同场合下的需求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务凭证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名银行客户，我希望自己的交易能够有一个可以查询的凭证，通过凭证可以证明进行了哪些操作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人财产安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名银行客户，我希望自己的人身和财产安全得到保障，取钱时有一个独立的安全的空间，保护个人隐私。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名银行顾客，我希望我的财产安全能够得到保障，不同的情况要有不同的安全级别。如取钱需要密码，改手机号等需要身份证。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名银行客户，我希望有一个故障警报装置，在自己操作的时候，如果发生了故障，保障人员能够第一时间知晓并处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等候时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名银行客户，我希望有几个椅子一个电视，可以在等待的时间里坐下休息，看电视解闷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办理窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名银行客户，我希望在人多的时间多开几个窗口处理业务，可以减少顾客的等待时间，增加满意度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名银行客户，我希望业务处理人员能够态度随和，普通话达标，可以更好，更准确的为顾客服务。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+  <si>
+    <t>用户故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始估算时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的父母，我想要登陆注册简单一些，以方便实现快速登陆。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should have</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2人日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的父母，我想要页面字体大一些，以方便我们观察使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的父母，我想要软件操作简单，功能容易查找，以方便我快速打开想用的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>must have</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3人日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的父母，我想要有一个地方发表我的一些想法，以方便我分享自己的想法或者获取帮助。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7人日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的父母，我想要方便的和儿子女儿对话，以方便我加强和子女的沟通。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6人日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的父母，我想要能够观看一些养生信息，以方便我保持身体健康。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的父母，我想要通过看新闻或者玩游戏能够获取水果奖品等，以方便我消磨无聊时光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wouldn't have this time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4人日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的子女，我想要时刻获得父母的位置，观察一天的行动轨迹，以方便我了解父母的动向，保证安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的子女，我想要能够为父母发送一些消息提醒，以方便提醒父母做一些容易忘记的事，比如喝药等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5人日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为使用微家产品的子女，我想要能够方便的和父母通话，发送消息，以方便加强和父母的交流，随时关心父母。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,9 +159,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,136 +476,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="62.77734375" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
